--- a/database/sidis/expdata/2530.xlsx
+++ b/database/sidis/expdata/2530.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB7AA7B-20F3-9F4A-AFA3-233A23EBC91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892FE5AC-6DC5-4749-AD30-8005F16C9CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{40808946-F15B-4D4A-8260-074BA949696B}"/>
+    <workbookView xWindow="8720" yWindow="560" windowWidth="17300" windowHeight="17440" xr2:uid="{40808946-F15B-4D4A-8260-074BA949696B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -470,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608BCD31-6C24-7D47-9DD2-AD24A5781028}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="I12" zoomScale="83" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,7 +917,7 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="D8">
-        <v>0.219</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E8">
         <v>0.44900000000000001</v>
@@ -938,7 +929,7 @@
         <v>-5.8999999999999999E-3</v>
       </c>
       <c r="H8">
-        <v>8.1000000000000003E-2</v>
+        <v>8.1199999999999994E-2</v>
       </c>
       <c r="I8">
         <v>2.5000000000000001E-3</v>
@@ -1042,7 +1033,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.14000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="B10">
         <v>5.3999999999999999E-2</v>
@@ -1105,7 +1096,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.14799999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="B11">
         <v>5.0999999999999997E-2</v>
@@ -3006,7 +2997,7 @@
         <v>23</v>
       </c>
       <c r="G41">
-        <v>0.2301</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="H41">
         <v>0.1153</v>
